--- a/Code/Results/Cases/Case_6_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_57/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9783755575920727</v>
+        <v>1.004549703952033</v>
       </c>
       <c r="D2">
-        <v>0.9996275765548206</v>
+        <v>1.020607171044947</v>
       </c>
       <c r="E2">
-        <v>0.9870536195592174</v>
+        <v>1.009886119590803</v>
       </c>
       <c r="F2">
-        <v>0.9540448685029359</v>
+        <v>0.981645326397694</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032682210811763</v>
+        <v>1.0421318469705</v>
       </c>
       <c r="J2">
-        <v>1.001222866317796</v>
+        <v>1.026595180531047</v>
       </c>
       <c r="K2">
-        <v>1.01109210226692</v>
+        <v>1.031786690505275</v>
       </c>
       <c r="L2">
-        <v>0.9986963140260409</v>
+        <v>1.021209422022363</v>
       </c>
       <c r="M2">
-        <v>0.9661838615341672</v>
+        <v>0.9933664353135014</v>
       </c>
       <c r="N2">
-        <v>1.002644717629835</v>
+        <v>1.028053063439515</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9872275655922645</v>
+        <v>1.011391458999646</v>
       </c>
       <c r="D3">
-        <v>1.006344567685046</v>
+        <v>1.025886262575443</v>
       </c>
       <c r="E3">
-        <v>0.9944725405592055</v>
+        <v>1.015561451180327</v>
       </c>
       <c r="F3">
-        <v>0.9659139621758884</v>
+        <v>0.9912498971480598</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035368108602088</v>
+        <v>1.044625880893775</v>
       </c>
       <c r="J3">
-        <v>1.008072581387739</v>
+        <v>1.031576326061662</v>
       </c>
       <c r="K3">
-        <v>1.016896907161057</v>
+        <v>1.036198300417423</v>
       </c>
       <c r="L3">
-        <v>1.005176638254914</v>
+        <v>1.025999018106607</v>
       </c>
       <c r="M3">
-        <v>0.9770023936235626</v>
+        <v>1.001995975161343</v>
       </c>
       <c r="N3">
-        <v>1.009504160080851</v>
+        <v>1.033041282768128</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9927359049825685</v>
+        <v>1.015683434438683</v>
       </c>
       <c r="D4">
-        <v>1.010526725595579</v>
+        <v>1.029200176664029</v>
       </c>
       <c r="E4">
-        <v>0.99909557855982</v>
+        <v>1.019127185955299</v>
       </c>
       <c r="F4">
-        <v>0.9732843631963339</v>
+        <v>0.9972637603478787</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03702477607394</v>
+        <v>1.046178452964122</v>
       </c>
       <c r="J4">
-        <v>1.012327270170154</v>
+        <v>1.03469429018099</v>
       </c>
       <c r="K4">
-        <v>1.020499741060054</v>
+        <v>1.038958505683407</v>
       </c>
       <c r="L4">
-        <v>1.009204931421691</v>
+        <v>1.029000116044831</v>
       </c>
       <c r="M4">
-        <v>0.9837162875439434</v>
+        <v>1.007395321941422</v>
       </c>
       <c r="N4">
-        <v>1.013764891009356</v>
+        <v>1.036163674754141</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.995002863512147</v>
+        <v>1.017457264851333</v>
       </c>
       <c r="D5">
-        <v>1.012248302648188</v>
+        <v>1.030570235115556</v>
       </c>
       <c r="E5">
-        <v>1.000999612867591</v>
+        <v>1.020602107564759</v>
       </c>
       <c r="F5">
-        <v>0.9763147075054001</v>
+        <v>0.9997470227241086</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03770297936593</v>
+        <v>1.046817197882979</v>
       </c>
       <c r="J5">
-        <v>1.014076406979264</v>
+        <v>1.03598125644589</v>
       </c>
       <c r="K5">
-        <v>1.021980164595614</v>
+        <v>1.040097477320261</v>
       </c>
       <c r="L5">
-        <v>1.01086169065598</v>
+        <v>1.030239552399835</v>
       </c>
       <c r="M5">
-        <v>0.9864756373400789</v>
+        <v>1.009623825039971</v>
       </c>
       <c r="N5">
-        <v>1.015516511793364</v>
+        <v>1.037452468658754</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9953807396024702</v>
+        <v>1.017753359434207</v>
       </c>
       <c r="D6">
-        <v>1.012535289505056</v>
+        <v>1.030798954705497</v>
       </c>
       <c r="E6">
-        <v>1.001317073746327</v>
+        <v>1.020848377910643</v>
       </c>
       <c r="F6">
-        <v>0.9768196777714385</v>
+        <v>1.000161422235117</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037815814266161</v>
+        <v>1.046923646853182</v>
       </c>
       <c r="J6">
-        <v>1.014367856313374</v>
+        <v>1.036195983673577</v>
       </c>
       <c r="K6">
-        <v>1.02222679513637</v>
+        <v>1.040287492080377</v>
       </c>
       <c r="L6">
-        <v>1.011137787552649</v>
+        <v>1.030446390441132</v>
       </c>
       <c r="M6">
-        <v>0.9869353845067386</v>
+        <v>1.009995650214256</v>
       </c>
       <c r="N6">
-        <v>1.015808375018959</v>
+        <v>1.037667500823734</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9927663830409783</v>
+        <v>1.015707254058774</v>
       </c>
       <c r="D7">
-        <v>1.010549869870456</v>
+        <v>1.029218572614032</v>
       </c>
       <c r="E7">
-        <v>0.9991211718193242</v>
+        <v>1.019146986913769</v>
       </c>
       <c r="F7">
-        <v>0.9733251153404477</v>
+        <v>0.9972971145820847</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037033908523286</v>
+        <v>1.046187041859779</v>
       </c>
       <c r="J7">
-        <v>1.012350793899068</v>
+        <v>1.034711578607457</v>
       </c>
       <c r="K7">
-        <v>1.020519653896094</v>
+        <v>1.038973807353981</v>
       </c>
       <c r="L7">
-        <v>1.009227210072721</v>
+        <v>1.02901676320256</v>
       </c>
       <c r="M7">
-        <v>0.9837533996931856</v>
+        <v>1.007425258413863</v>
       </c>
       <c r="N7">
-        <v>1.013788448144664</v>
+        <v>1.036180987732157</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9814150210757558</v>
+        <v>1.006891032569105</v>
       </c>
       <c r="D8">
-        <v>1.001933342387233</v>
+        <v>1.022413213509426</v>
       </c>
       <c r="E8">
-        <v>0.9895995547191921</v>
+        <v>1.011827078488174</v>
       </c>
       <c r="F8">
-        <v>0.9581240527035927</v>
+        <v>0.9849348311936155</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033607523070654</v>
+        <v>1.042987840353205</v>
       </c>
       <c r="J8">
-        <v>1.003576421823458</v>
+        <v>1.028301211692271</v>
       </c>
       <c r="K8">
-        <v>1.013087188855175</v>
+        <v>1.033297906642794</v>
       </c>
       <c r="L8">
-        <v>1.000922274365847</v>
+        <v>1.022849192690827</v>
       </c>
       <c r="M8">
-        <v>0.969902814172273</v>
+        <v>0.9963228122124272</v>
       </c>
       <c r="N8">
-        <v>1.005001615454272</v>
+        <v>1.029761517360672</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9595322063000785</v>
+        <v>0.990229319886515</v>
       </c>
       <c r="D9">
-        <v>0.9853511007820293</v>
+        <v>1.009574281058722</v>
       </c>
       <c r="E9">
-        <v>0.9713047534161181</v>
+        <v>0.998041781815144</v>
       </c>
       <c r="F9">
-        <v>0.9286492956997053</v>
+        <v>0.9614524112958298</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026884397836119</v>
+        <v>1.036846123254122</v>
       </c>
       <c r="J9">
-        <v>0.9865996257731169</v>
+        <v>1.016131887514877</v>
       </c>
       <c r="K9">
-        <v>0.9986864031726446</v>
+        <v>1.02251390887763</v>
       </c>
       <c r="L9">
-        <v>0.9848812051689142</v>
+        <v>1.011166709840883</v>
       </c>
       <c r="M9">
-        <v>0.9430167760924227</v>
+        <v>0.9752034718901844</v>
       </c>
       <c r="N9">
-        <v>0.9880007104062738</v>
+        <v>1.017574911347104</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9433436700569733</v>
+        <v>0.9782179981961644</v>
       </c>
       <c r="D10">
-        <v>0.973117963507796</v>
+        <v>1.000340867646424</v>
       </c>
       <c r="E10">
-        <v>0.9578242474407149</v>
+        <v>0.9881434143610996</v>
       </c>
       <c r="F10">
-        <v>0.9066491583210813</v>
+        <v>0.9443971968883734</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021835714578033</v>
+        <v>1.032356240506663</v>
       </c>
       <c r="J10">
-        <v>0.9740005892216891</v>
+        <v>1.007323299799734</v>
       </c>
       <c r="K10">
-        <v>0.9879901578353709</v>
+        <v>1.014703970348797</v>
       </c>
       <c r="L10">
-        <v>0.9729991707412168</v>
+        <v>1.002730094584184</v>
       </c>
       <c r="M10">
-        <v>0.9229366088342676</v>
+        <v>0.9598485925691707</v>
       </c>
       <c r="N10">
-        <v>0.9753837817778129</v>
+        <v>1.008753814427047</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9358568722639716</v>
+        <v>0.9727635886675376</v>
       </c>
       <c r="D11">
-        <v>0.9674725623560213</v>
+        <v>0.9961548821588815</v>
       </c>
       <c r="E11">
-        <v>0.9516059231970934</v>
+        <v>0.9836594534983063</v>
       </c>
       <c r="F11">
-        <v>0.8964042723398676</v>
+        <v>0.9366094271960393</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019484547133703</v>
+        <v>1.030303224959126</v>
       </c>
       <c r="J11">
-        <v>0.9681649372090001</v>
+        <v>1.003315032105963</v>
       </c>
       <c r="K11">
-        <v>0.98303512238645</v>
+        <v>1.011149677907054</v>
       </c>
       <c r="L11">
-        <v>0.9675020696571278</v>
+        <v>0.9988962510113436</v>
       </c>
       <c r="M11">
-        <v>0.913585458262406</v>
+        <v>0.9528347161248116</v>
       </c>
       <c r="N11">
-        <v>0.9695398424699074</v>
+        <v>1.004739854533396</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9329936785854778</v>
+        <v>0.9706955741370225</v>
       </c>
       <c r="D12">
-        <v>0.965315807731952</v>
+        <v>0.9945689930021411</v>
       </c>
       <c r="E12">
-        <v>0.9492305874957682</v>
+        <v>0.9819611761197889</v>
       </c>
       <c r="F12">
-        <v>0.8924730359834842</v>
+        <v>0.9336489647713868</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018583097740919</v>
+        <v>1.029522772416374</v>
       </c>
       <c r="J12">
-        <v>0.9659319044404717</v>
+        <v>1.001794097935034</v>
       </c>
       <c r="K12">
-        <v>0.9811390994064717</v>
+        <v>1.0098009874853</v>
       </c>
       <c r="L12">
-        <v>0.965399668889912</v>
+        <v>0.9974423283339312</v>
       </c>
       <c r="M12">
-        <v>0.9099974121040632</v>
+        <v>0.9501681983368735</v>
       </c>
       <c r="N12">
-        <v>0.9673036385387151</v>
+        <v>1.003216760461491</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9336117623260842</v>
+        <v>0.9711411406200949</v>
       </c>
       <c r="D13">
-        <v>0.9657812832530425</v>
+        <v>0.9949106253099169</v>
       </c>
       <c r="E13">
-        <v>0.9497432262602256</v>
+        <v>0.9823269968209769</v>
       </c>
       <c r="F13">
-        <v>0.8933223283856225</v>
+        <v>0.9342871886749168</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018777795802007</v>
+        <v>1.029691017676427</v>
       </c>
       <c r="J13">
-        <v>0.9664140114307677</v>
+        <v>1.002121847239053</v>
       </c>
       <c r="K13">
-        <v>0.9815484422945904</v>
+        <v>1.010091619495692</v>
       </c>
       <c r="L13">
-        <v>0.9658535217445782</v>
+        <v>0.9977555990120139</v>
       </c>
       <c r="M13">
-        <v>0.9107725464384545</v>
+        <v>0.9507430615923388</v>
       </c>
       <c r="N13">
-        <v>0.9677864301762357</v>
+        <v>1.003544975207115</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9356219477528225</v>
+        <v>0.9725935276421142</v>
       </c>
       <c r="D14">
-        <v>0.9672955534129875</v>
+        <v>0.9960244427367018</v>
       </c>
       <c r="E14">
-        <v>0.9514109695895022</v>
+        <v>0.9835197600992254</v>
       </c>
       <c r="F14">
-        <v>0.8960820009261887</v>
+        <v>0.9363661424193533</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01941062859851</v>
+        <v>1.030239086651182</v>
       </c>
       <c r="J14">
-        <v>0.9679817431040278</v>
+        <v>1.003189984240595</v>
       </c>
       <c r="K14">
-        <v>0.9828795742481325</v>
+        <v>1.011038791570047</v>
       </c>
       <c r="L14">
-        <v>0.9673295697182487</v>
+        <v>0.9987766956213628</v>
       </c>
       <c r="M14">
-        <v>0.9132913138088944</v>
+        <v>0.9526155912372833</v>
       </c>
       <c r="N14">
-        <v>0.9693563882082934</v>
+        <v>1.004614629085716</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9368492312864456</v>
+        <v>0.9734826977277652</v>
       </c>
       <c r="D15">
-        <v>0.9682203694763621</v>
+        <v>0.9967064999405247</v>
       </c>
       <c r="E15">
-        <v>0.9524295521992427</v>
+        <v>0.9842502258542241</v>
       </c>
       <c r="F15">
-        <v>0.8977650445217862</v>
+        <v>0.9376378416933548</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019796699408593</v>
+        <v>1.030574352741122</v>
       </c>
       <c r="J15">
-        <v>0.968938726701672</v>
+        <v>1.003843752082827</v>
       </c>
       <c r="K15">
-        <v>0.9836921412096584</v>
+        <v>1.011618520584195</v>
       </c>
       <c r="L15">
-        <v>0.9682307329113997</v>
+        <v>0.9994017819010796</v>
       </c>
       <c r="M15">
-        <v>0.9148274776183067</v>
+        <v>0.9537609927360535</v>
       </c>
       <c r="N15">
-        <v>0.9703147308324138</v>
+        <v>1.005269325353273</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9438296411613865</v>
+        <v>0.9785743276314693</v>
       </c>
       <c r="D16">
-        <v>0.9734846897939137</v>
+        <v>1.000614489678932</v>
       </c>
       <c r="E16">
-        <v>0.9582282378049902</v>
+        <v>0.9884365841679504</v>
       </c>
       <c r="F16">
-        <v>0.9073125065934287</v>
+        <v>0.9449049696690932</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021988008847775</v>
+        <v>1.03249007440453</v>
       </c>
       <c r="J16">
-        <v>0.9743792052058224</v>
+        <v>1.007584986192595</v>
       </c>
       <c r="K16">
-        <v>0.9883116364232947</v>
+        <v>1.014936013031142</v>
       </c>
       <c r="L16">
-        <v>0.9733559627916455</v>
+        <v>1.002980504084717</v>
       </c>
       <c r="M16">
-        <v>0.9235421040122547</v>
+        <v>0.9603058652427855</v>
       </c>
       <c r="N16">
-        <v>0.9757629354400715</v>
+        <v>1.009015872444601</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9480737651791994</v>
+        <v>0.981697725228073</v>
       </c>
       <c r="D17">
-        <v>0.9766888076926089</v>
+        <v>1.003013719120885</v>
       </c>
       <c r="E17">
-        <v>0.9617582270096482</v>
+        <v>0.991007606607978</v>
       </c>
       <c r="F17">
-        <v>0.9130976255052548</v>
+        <v>0.9493508758958891</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023316240181258</v>
+        <v>1.033661607747216</v>
       </c>
       <c r="J17">
-        <v>0.9776847794569761</v>
+        <v>1.009877867401074</v>
       </c>
       <c r="K17">
-        <v>0.991118296518365</v>
+        <v>1.016969112462601</v>
       </c>
       <c r="L17">
-        <v>0.9764717286847493</v>
+        <v>1.005175163801981</v>
       </c>
       <c r="M17">
-        <v>0.928822669345806</v>
+        <v>0.9643093386324717</v>
       </c>
       <c r="N17">
-        <v>0.9790732039858165</v>
+        <v>1.011312009807394</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9505040854522272</v>
+        <v>0.9834953920449083</v>
       </c>
       <c r="D18">
-        <v>0.9785246821222066</v>
+        <v>1.004395233299901</v>
       </c>
       <c r="E18">
-        <v>0.9637810772101225</v>
+        <v>0.9924883702300472</v>
       </c>
       <c r="F18">
-        <v>0.9164040460394834</v>
+        <v>0.9519057845372675</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024075307864637</v>
+        <v>1.034334552633543</v>
       </c>
       <c r="J18">
-        <v>0.9795768275709019</v>
+        <v>1.011196758262684</v>
       </c>
       <c r="K18">
-        <v>0.9927246980990063</v>
+        <v>1.018138528137431</v>
       </c>
       <c r="L18">
-        <v>0.9782557228597367</v>
+        <v>1.006438036260398</v>
       </c>
       <c r="M18">
-        <v>0.9318406645000762</v>
+        <v>0.9666097517706742</v>
       </c>
       <c r="N18">
-        <v>0.9809679390250849</v>
+        <v>1.012632773645306</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9513253794561363</v>
+        <v>0.9841043624265176</v>
       </c>
       <c r="D19">
-        <v>0.9791452660050481</v>
+        <v>1.00486333373214</v>
       </c>
       <c r="E19">
-        <v>0.9644649119535771</v>
+        <v>0.9929901557964931</v>
       </c>
       <c r="F19">
-        <v>0.9175204019563477</v>
+        <v>0.9527706444863258</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024331562480667</v>
+        <v>1.03456228945795</v>
       </c>
       <c r="J19">
-        <v>0.9802160777180505</v>
+        <v>1.011643408587679</v>
       </c>
       <c r="K19">
-        <v>0.99326742227305</v>
+        <v>1.018534548619116</v>
       </c>
       <c r="L19">
-        <v>0.9788585626300466</v>
+        <v>1.006865795601973</v>
       </c>
       <c r="M19">
-        <v>0.932859622147759</v>
+        <v>0.9673884176190697</v>
       </c>
       <c r="N19">
-        <v>0.9816080969807659</v>
+        <v>1.013080058264994</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9476231558658568</v>
+        <v>0.9813651395713578</v>
       </c>
       <c r="D20">
-        <v>0.9763485017673218</v>
+        <v>1.002758176580974</v>
       </c>
       <c r="E20">
-        <v>0.9613832842715927</v>
+        <v>0.9907337323702518</v>
       </c>
       <c r="F20">
-        <v>0.9124840801900661</v>
+        <v>0.9488778836328671</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023175375794353</v>
+        <v>1.033536998303877</v>
       </c>
       <c r="J20">
-        <v>0.9773339043122974</v>
+        <v>1.009633797066584</v>
       </c>
       <c r="K20">
-        <v>0.9908203864985717</v>
+        <v>1.016752699544311</v>
       </c>
       <c r="L20">
-        <v>0.976140938961057</v>
+        <v>1.004941498631423</v>
       </c>
       <c r="M20">
-        <v>0.9282626386130352</v>
+        <v>0.9638834406194032</v>
       </c>
       <c r="N20">
-        <v>0.9787218305581863</v>
+        <v>1.011067592865034</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9350323662045056</v>
+        <v>0.972167029905124</v>
       </c>
       <c r="D21">
-        <v>0.966851357726064</v>
+        <v>0.995697332411587</v>
       </c>
       <c r="E21">
-        <v>0.950921746957506</v>
+        <v>0.9831694510429287</v>
       </c>
       <c r="F21">
-        <v>0.8952729850192995</v>
+        <v>0.9357558764048676</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019225081830962</v>
+        <v>1.030078200644595</v>
       </c>
       <c r="J21">
-        <v>0.9675219669433116</v>
+        <v>1.002876355945574</v>
       </c>
       <c r="K21">
-        <v>0.9824891844416258</v>
+        <v>1.010760681236359</v>
       </c>
       <c r="L21">
-        <v>0.9668966513394704</v>
+        <v>0.9984768562827219</v>
       </c>
       <c r="M21">
-        <v>0.9125529115489033</v>
+        <v>0.9520659254861561</v>
       </c>
       <c r="N21">
-        <v>0.9688959591126918</v>
+        <v>1.004300555402542</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9266329233098705</v>
+        <v>0.966138386687783</v>
       </c>
       <c r="D22">
-        <v>0.960529100523023</v>
+        <v>0.9910766683948095</v>
       </c>
       <c r="E22">
-        <v>0.9439591702189123</v>
+        <v>0.9782222597032035</v>
       </c>
       <c r="F22">
-        <v>0.8837113104792297</v>
+        <v>0.9271091127010735</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016576431890887</v>
+        <v>1.027799192818171</v>
       </c>
       <c r="J22">
-        <v>0.9609687444876506</v>
+        <v>0.9984402564892524</v>
       </c>
       <c r="K22">
-        <v>0.9769252435705699</v>
+        <v>1.006826995338337</v>
       </c>
       <c r="L22">
-        <v>0.9607290160847223</v>
+        <v>0.9942378449652204</v>
       </c>
       <c r="M22">
-        <v>0.9020014144971856</v>
+        <v>0.9442774051566067</v>
       </c>
       <c r="N22">
-        <v>0.9623334303294792</v>
+        <v>0.9998581561761656</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9311356276558662</v>
+        <v>0.9693590221233905</v>
       </c>
       <c r="D23">
-        <v>0.9639168819569619</v>
+        <v>0.9935443996650042</v>
       </c>
       <c r="E23">
-        <v>0.9476899526748686</v>
+        <v>0.9808641109153836</v>
       </c>
       <c r="F23">
-        <v>0.8899177445506239</v>
+        <v>0.9317332506801563</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017997484819124</v>
+        <v>1.029017795203731</v>
       </c>
       <c r="J23">
-        <v>0.9644824338112004</v>
+        <v>1.000810781293039</v>
       </c>
       <c r="K23">
-        <v>0.9799084151676538</v>
+        <v>1.008929032328871</v>
       </c>
       <c r="L23">
-        <v>0.9640353146318951</v>
+        <v>0.9965025761079773</v>
       </c>
       <c r="M23">
-        <v>0.9076653044718579</v>
+        <v>0.9484426453384569</v>
       </c>
       <c r="N23">
-        <v>0.9658521094948935</v>
+        <v>1.002232047397076</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9478269057398556</v>
+        <v>0.9815154950796854</v>
       </c>
       <c r="D24">
-        <v>0.9765023729022589</v>
+        <v>1.002873700413416</v>
       </c>
       <c r="E24">
-        <v>0.9615528158076919</v>
+        <v>0.9908575424430089</v>
       </c>
       <c r="F24">
-        <v>0.9127615235619226</v>
+        <v>0.9490917263445122</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023239074519746</v>
+        <v>1.033593335946085</v>
       </c>
       <c r="J24">
-        <v>0.9774925604451935</v>
+        <v>1.009744138924255</v>
       </c>
       <c r="K24">
-        <v>0.9909550935042396</v>
+        <v>1.016850537895433</v>
       </c>
       <c r="L24">
-        <v>0.9762905111908974</v>
+        <v>1.005047134926839</v>
       </c>
       <c r="M24">
-        <v>0.9285158830362736</v>
+        <v>0.9640759925011276</v>
       </c>
       <c r="N24">
-        <v>0.9788807120009896</v>
+        <v>1.011178091420799</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9654432682420632</v>
+        <v>0.9946841920271619</v>
       </c>
       <c r="D25">
-        <v>0.9898257634412098</v>
+        <v>1.013003810997602</v>
       </c>
       <c r="E25">
-        <v>0.9762385459469118</v>
+        <v>1.001721373721782</v>
       </c>
       <c r="F25">
-        <v>0.9366374879913459</v>
+        <v>0.967748873395552</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028713486311723</v>
+        <v>1.038499037623115</v>
       </c>
       <c r="J25">
-        <v>0.9911923204290468</v>
+        <v>1.019391788278233</v>
       </c>
       <c r="K25">
-        <v>1.00258410167895</v>
+        <v>1.025403558542993</v>
       </c>
       <c r="L25">
-        <v>0.9892172787419371</v>
+        <v>1.014293026223817</v>
       </c>
       <c r="M25">
-        <v>0.9503060961793137</v>
+        <v>0.9808693674464211</v>
       </c>
       <c r="N25">
-        <v>0.9925999272154044</v>
+        <v>1.020839441543461</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_57/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004549703952033</v>
+        <v>1.003032455006315</v>
       </c>
       <c r="D2">
-        <v>1.020607171044947</v>
+        <v>1.021576672386376</v>
       </c>
       <c r="E2">
-        <v>1.009886119590803</v>
+        <v>1.008984314930228</v>
       </c>
       <c r="F2">
-        <v>0.981645326397694</v>
+        <v>0.9800482785743847</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0421318469705</v>
+        <v>1.04252965572105</v>
       </c>
       <c r="J2">
-        <v>1.026595180531047</v>
+        <v>1.025122842630128</v>
       </c>
       <c r="K2">
-        <v>1.031786690505275</v>
+        <v>1.032743376241842</v>
       </c>
       <c r="L2">
-        <v>1.021209422022363</v>
+        <v>1.020319887051614</v>
       </c>
       <c r="M2">
-        <v>0.9933664353135014</v>
+        <v>0.991792753051533</v>
       </c>
       <c r="N2">
-        <v>1.028053063439515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012035413642868</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.034222621338588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011391458999646</v>
+        <v>1.007552292985996</v>
       </c>
       <c r="D3">
-        <v>1.025886262575443</v>
+        <v>1.024573838200236</v>
       </c>
       <c r="E3">
-        <v>1.015561451180327</v>
+        <v>1.012602270716529</v>
       </c>
       <c r="F3">
-        <v>0.9912498971480598</v>
+        <v>0.9872295916026108</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044625880893775</v>
+        <v>1.043745707043682</v>
       </c>
       <c r="J3">
-        <v>1.031576326061662</v>
+        <v>1.027839170999611</v>
       </c>
       <c r="K3">
-        <v>1.036198300417423</v>
+        <v>1.034901658271491</v>
       </c>
       <c r="L3">
-        <v>1.025999018106607</v>
+        <v>1.023076403017888</v>
       </c>
       <c r="M3">
-        <v>1.001995975161343</v>
+        <v>0.998028522711716</v>
       </c>
       <c r="N3">
-        <v>1.033041282768128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012967983179185</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.035746054508194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015683434438683</v>
+        <v>1.01041368001676</v>
       </c>
       <c r="D4">
-        <v>1.029200176664029</v>
+        <v>1.026475542880588</v>
       </c>
       <c r="E4">
-        <v>1.019127185955299</v>
+        <v>1.01489841525276</v>
       </c>
       <c r="F4">
-        <v>0.9972637603478787</v>
+        <v>0.9917624659252464</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046178452964122</v>
+        <v>1.044506666737969</v>
       </c>
       <c r="J4">
-        <v>1.03469429018099</v>
+        <v>1.029554702564635</v>
       </c>
       <c r="K4">
-        <v>1.038958505683407</v>
+        <v>1.036264596712382</v>
       </c>
       <c r="L4">
-        <v>1.029000116044831</v>
+        <v>1.024820294355355</v>
       </c>
       <c r="M4">
-        <v>1.007395321941422</v>
+        <v>1.00196133809836</v>
       </c>
       <c r="N4">
-        <v>1.036163674754141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013556828701852</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.036710680196772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017457264851333</v>
+        <v>1.011606285413914</v>
       </c>
       <c r="D5">
-        <v>1.030570235115556</v>
+        <v>1.02727143488873</v>
       </c>
       <c r="E5">
-        <v>1.020602107564759</v>
+        <v>1.01585725896418</v>
       </c>
       <c r="F5">
-        <v>0.9997470227241086</v>
+        <v>0.993646619963487</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046817197882979</v>
+        <v>1.044823364260314</v>
       </c>
       <c r="J5">
-        <v>1.03598125644589</v>
+        <v>1.030270317598753</v>
       </c>
       <c r="K5">
-        <v>1.040097477320261</v>
+        <v>1.0368348560277</v>
       </c>
       <c r="L5">
-        <v>1.030239552399835</v>
+        <v>1.025548096627388</v>
       </c>
       <c r="M5">
-        <v>1.009623825039971</v>
+        <v>1.003595792111748</v>
       </c>
       <c r="N5">
-        <v>1.037452468658754</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01380292490843</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037121104289821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017753359434207</v>
+        <v>1.011810830375747</v>
       </c>
       <c r="D6">
-        <v>1.030798954705497</v>
+        <v>1.02741077857572</v>
       </c>
       <c r="E6">
-        <v>1.020848377910643</v>
+        <v>1.01602238559851</v>
       </c>
       <c r="F6">
-        <v>1.000161422235117</v>
+        <v>0.993966855469934</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046923646853182</v>
+        <v>1.044879619489856</v>
       </c>
       <c r="J6">
-        <v>1.036195983673577</v>
+        <v>1.030394927833984</v>
       </c>
       <c r="K6">
-        <v>1.040287492080377</v>
+        <v>1.036936299868267</v>
       </c>
       <c r="L6">
-        <v>1.030446390441132</v>
+        <v>1.025674444151631</v>
       </c>
       <c r="M6">
-        <v>1.009995650214256</v>
+        <v>1.003874186438897</v>
       </c>
       <c r="N6">
-        <v>1.037667500823734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013846387929161</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037201612045833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015707254058774</v>
+        <v>1.010443530925978</v>
       </c>
       <c r="D7">
-        <v>1.029218572614032</v>
+        <v>1.026502916367914</v>
       </c>
       <c r="E7">
-        <v>1.019146986913769</v>
+        <v>1.014924028799763</v>
       </c>
       <c r="F7">
-        <v>0.9972971145820847</v>
+        <v>0.9918022137062019</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046187041859779</v>
+        <v>1.044520162217357</v>
       </c>
       <c r="J7">
-        <v>1.034711578607457</v>
+        <v>1.029577816599848</v>
       </c>
       <c r="K7">
-        <v>1.038973807353981</v>
+        <v>1.036288762786706</v>
       </c>
       <c r="L7">
-        <v>1.02901676320256</v>
+        <v>1.024842667766352</v>
       </c>
       <c r="M7">
-        <v>1.007425258413863</v>
+        <v>1.001997561108084</v>
       </c>
       <c r="N7">
-        <v>1.036180987732157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013566449037904</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.036747961745303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006891032569105</v>
+        <v>1.004590940718059</v>
       </c>
       <c r="D8">
-        <v>1.022413213509426</v>
+        <v>1.022618480378777</v>
       </c>
       <c r="E8">
-        <v>1.011827078488174</v>
+        <v>1.010232739950708</v>
       </c>
       <c r="F8">
-        <v>0.9849348311936155</v>
+        <v>0.9825181085234154</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042987840353205</v>
+        <v>1.042957731045501</v>
       </c>
       <c r="J8">
-        <v>1.028301211692271</v>
+        <v>1.026066802575108</v>
       </c>
       <c r="K8">
-        <v>1.033297906642794</v>
+        <v>1.033500544045063</v>
       </c>
       <c r="L8">
-        <v>1.022849192690827</v>
+        <v>1.021275863565747</v>
       </c>
       <c r="M8">
-        <v>0.9963228122124272</v>
+        <v>0.9939402085480714</v>
       </c>
       <c r="N8">
-        <v>1.029761517360672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012361722234092</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.034781040103415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.990229319886515</v>
+        <v>0.993741878073661</v>
       </c>
       <c r="D9">
-        <v>1.009574281058722</v>
+        <v>1.015442313872633</v>
       </c>
       <c r="E9">
-        <v>0.998041781815144</v>
+        <v>1.001581186035861</v>
       </c>
       <c r="F9">
-        <v>0.9614524112958298</v>
+        <v>0.9651930921946086</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036846123254122</v>
+        <v>1.039982571127076</v>
       </c>
       <c r="J9">
-        <v>1.016131887514877</v>
+        <v>1.019517578852962</v>
       </c>
       <c r="K9">
-        <v>1.02251390887763</v>
+        <v>1.028289721903932</v>
       </c>
       <c r="L9">
-        <v>1.011166709840883</v>
+        <v>1.014648661585311</v>
       </c>
       <c r="M9">
-        <v>0.9752034718901844</v>
+        <v>0.9788773135231617</v>
       </c>
       <c r="N9">
-        <v>1.017574911347104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010110862148568</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.031093390705973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9782179981961644</v>
+        <v>0.986124702098692</v>
       </c>
       <c r="D10">
-        <v>1.000340867646424</v>
+        <v>1.010434821365644</v>
       </c>
       <c r="E10">
-        <v>0.9881434143610996</v>
+        <v>0.9955427613879424</v>
       </c>
       <c r="F10">
-        <v>0.9443971968883734</v>
+        <v>0.9529085573753053</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032356240506663</v>
+        <v>1.037850063936025</v>
       </c>
       <c r="J10">
-        <v>1.007323299799734</v>
+        <v>1.014899854251154</v>
       </c>
       <c r="K10">
-        <v>1.014703970348797</v>
+        <v>1.024618193587838</v>
       </c>
       <c r="L10">
-        <v>1.002730094584184</v>
+        <v>1.009992961713563</v>
       </c>
       <c r="M10">
-        <v>0.9598485925691707</v>
+        <v>0.9681835057595702</v>
       </c>
       <c r="N10">
-        <v>1.008753814427047</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008524576949527</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.028514294427029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9727635886675376</v>
+        <v>0.9827419874121104</v>
       </c>
       <c r="D11">
-        <v>0.9961548821588815</v>
+        <v>1.008227820031363</v>
       </c>
       <c r="E11">
-        <v>0.9836594534983063</v>
+        <v>0.9928727339307611</v>
       </c>
       <c r="F11">
-        <v>0.9366094271960393</v>
+        <v>0.9474069844420729</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030303224959126</v>
+        <v>1.036899586433172</v>
       </c>
       <c r="J11">
-        <v>1.003315032105963</v>
+        <v>1.012850771170351</v>
       </c>
       <c r="K11">
-        <v>1.011149677907054</v>
+        <v>1.022996222068407</v>
       </c>
       <c r="L11">
-        <v>0.9988962510113436</v>
+        <v>1.007930323453907</v>
       </c>
       <c r="M11">
-        <v>0.9528347161248116</v>
+        <v>0.9633938943981584</v>
       </c>
       <c r="N11">
-        <v>1.004739854533396</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007823439391694</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.027400631698111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9706955741370225</v>
+        <v>0.981458716070847</v>
       </c>
       <c r="D12">
-        <v>0.9945689930021411</v>
+        <v>1.007386589469127</v>
       </c>
       <c r="E12">
-        <v>0.9819611761197889</v>
+        <v>0.9918598366480049</v>
       </c>
       <c r="F12">
-        <v>0.9336489647713868</v>
+        <v>0.945319354404587</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029522772416374</v>
+        <v>1.036533624731888</v>
       </c>
       <c r="J12">
-        <v>1.001794097935034</v>
+        <v>1.012069046438826</v>
       </c>
       <c r="K12">
-        <v>1.0098009874853</v>
+        <v>1.022373629261526</v>
       </c>
       <c r="L12">
-        <v>0.9974423283339312</v>
+        <v>1.007144668851381</v>
       </c>
       <c r="M12">
-        <v>0.9501681983368735</v>
+        <v>0.9615748851830037</v>
       </c>
       <c r="N12">
-        <v>1.003216760461491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007554552638291</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.026960429742507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9711411406200949</v>
+        <v>0.9817327031802164</v>
       </c>
       <c r="D13">
-        <v>0.9949106253099169</v>
+        <v>1.00756513301399</v>
       </c>
       <c r="E13">
-        <v>0.9823269968209769</v>
+        <v>0.9920757509494375</v>
       </c>
       <c r="F13">
-        <v>0.9342871886749168</v>
+        <v>0.9457664876086406</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029691017676427</v>
+        <v>1.036611078833204</v>
       </c>
       <c r="J13">
-        <v>1.002121847239053</v>
+        <v>1.012235274085437</v>
       </c>
       <c r="K13">
-        <v>1.010091619495692</v>
+        <v>1.022505266101204</v>
       </c>
       <c r="L13">
-        <v>0.9977555990120139</v>
+        <v>1.007311808046305</v>
       </c>
       <c r="M13">
-        <v>0.9507430615923388</v>
+        <v>0.961964262175769</v>
       </c>
       <c r="N13">
-        <v>1.003544975207115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007611444040391</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.027050983512957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9725935276421142</v>
+        <v>0.9826353845926956</v>
       </c>
       <c r="D14">
-        <v>0.9960244427367018</v>
+        <v>1.008157481827001</v>
       </c>
       <c r="E14">
-        <v>0.9835197600992254</v>
+        <v>0.9927884425282356</v>
       </c>
       <c r="F14">
-        <v>0.9363661424193533</v>
+        <v>0.9472341701904836</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030239086651182</v>
+        <v>1.036868896651719</v>
       </c>
       <c r="J14">
-        <v>1.003189984240595</v>
+        <v>1.012785544776663</v>
       </c>
       <c r="K14">
-        <v>1.011038791570047</v>
+        <v>1.022943951663574</v>
       </c>
       <c r="L14">
-        <v>0.9987766956213628</v>
+        <v>1.007864801163434</v>
       </c>
       <c r="M14">
-        <v>0.9526155912372833</v>
+        <v>0.9632432221230866</v>
       </c>
       <c r="N14">
-        <v>1.004614629085716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007800882472749</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.027362594898969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9734826977277652</v>
+        <v>0.9831933693679384</v>
       </c>
       <c r="D15">
-        <v>0.9967064999405247</v>
+        <v>1.008525803854131</v>
       </c>
       <c r="E15">
-        <v>0.9842502258542241</v>
+        <v>0.9932297302449762</v>
       </c>
       <c r="F15">
-        <v>0.9376378416933548</v>
+        <v>0.9481383481535067</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030574352741122</v>
+        <v>1.037029548283787</v>
       </c>
       <c r="J15">
-        <v>1.003843752082827</v>
+        <v>1.013126997730436</v>
       </c>
       <c r="K15">
-        <v>1.011618520584195</v>
+        <v>1.02321766298977</v>
       </c>
       <c r="L15">
-        <v>0.9994017819010796</v>
+        <v>1.008207818674931</v>
       </c>
       <c r="M15">
-        <v>0.9537609927360535</v>
+        <v>0.9640315628713093</v>
       </c>
       <c r="N15">
-        <v>1.005269325353273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007918994271009</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.02756205483876</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9785743276314693</v>
+        <v>0.9863815401296231</v>
       </c>
       <c r="D16">
-        <v>1.000614489678932</v>
+        <v>1.010619990780436</v>
       </c>
       <c r="E16">
-        <v>0.9884365841679504</v>
+        <v>0.9957504168812984</v>
       </c>
       <c r="F16">
-        <v>0.9449049696690932</v>
+        <v>0.9533063979025471</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03249007440453</v>
+        <v>1.037934924794019</v>
       </c>
       <c r="J16">
-        <v>1.007584986192595</v>
+        <v>1.015067541219464</v>
       </c>
       <c r="K16">
-        <v>1.014936013031142</v>
+        <v>1.024763986914431</v>
       </c>
       <c r="L16">
-        <v>1.002980504084717</v>
+        <v>1.010159920362657</v>
       </c>
       <c r="M16">
-        <v>0.9603058652427855</v>
+        <v>0.9685338642564314</v>
       </c>
       <c r="N16">
-        <v>1.009015872444601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.0085867467276</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.028658575423108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.981697725228073</v>
+        <v>0.9883527806879253</v>
       </c>
       <c r="D17">
-        <v>1.003013719120885</v>
+        <v>1.011916809014742</v>
       </c>
       <c r="E17">
-        <v>0.991007606607978</v>
+        <v>0.9973113514053447</v>
       </c>
       <c r="F17">
-        <v>0.9493508758958891</v>
+        <v>0.9564918307290259</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033661607747216</v>
+        <v>1.038491933310922</v>
       </c>
       <c r="J17">
-        <v>1.009877867401074</v>
+        <v>1.016266021317472</v>
       </c>
       <c r="K17">
-        <v>1.016969112462601</v>
+        <v>1.025719070571473</v>
       </c>
       <c r="L17">
-        <v>1.005175163801981</v>
+        <v>1.011366687172407</v>
       </c>
       <c r="M17">
-        <v>0.9643093386324717</v>
+        <v>0.9713082887763971</v>
       </c>
       <c r="N17">
-        <v>1.011312009807394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008999160399381</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.029336473961491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9834953920449083</v>
+        <v>0.9894820321084851</v>
       </c>
       <c r="D18">
-        <v>1.004395233299901</v>
+        <v>1.012655072697689</v>
       </c>
       <c r="E18">
-        <v>0.9924883702300472</v>
+        <v>0.9982049797135544</v>
       </c>
       <c r="F18">
-        <v>0.9519057845372675</v>
+        <v>0.9583190640028525</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034334552633543</v>
+        <v>1.038806067024062</v>
       </c>
       <c r="J18">
-        <v>1.011196758262684</v>
+        <v>1.016948370325125</v>
       </c>
       <c r="K18">
-        <v>1.018138528137431</v>
+        <v>1.026258880899828</v>
       </c>
       <c r="L18">
-        <v>1.006438036260398</v>
+        <v>1.012054769647805</v>
       </c>
       <c r="M18">
-        <v>0.9666097517706742</v>
+        <v>0.9728982609585383</v>
       </c>
       <c r="N18">
-        <v>1.012632773645306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009232534885333</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.029706398632504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9841043624265176</v>
+        <v>0.989873579320063</v>
       </c>
       <c r="D19">
-        <v>1.00486333373214</v>
+        <v>1.012915309829591</v>
       </c>
       <c r="E19">
-        <v>0.9929901557964931</v>
+        <v>0.9985160688289016</v>
       </c>
       <c r="F19">
-        <v>0.9527706444863258</v>
+        <v>0.9589476201944409</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03456228945795</v>
+        <v>1.038917893899025</v>
       </c>
       <c r="J19">
-        <v>1.011643408587679</v>
+        <v>1.017187785625334</v>
       </c>
       <c r="K19">
-        <v>1.018534548619116</v>
+        <v>1.026451402657435</v>
       </c>
       <c r="L19">
-        <v>1.006865795601973</v>
+        <v>1.012295784854816</v>
       </c>
       <c r="M19">
-        <v>0.9673884176190697</v>
+        <v>0.9734461191598237</v>
       </c>
       <c r="N19">
-        <v>1.013080058264994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009315540438574</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.029848970101817</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9813651395713578</v>
+        <v>0.9881415014591711</v>
       </c>
       <c r="D20">
-        <v>1.002758176580974</v>
+        <v>1.011777329053505</v>
       </c>
       <c r="E20">
-        <v>0.9907337323702518</v>
+        <v>0.9971438503943264</v>
       </c>
       <c r="F20">
-        <v>0.9488778836328671</v>
+        <v>0.9561512130603657</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033536998303877</v>
+        <v>1.038432030356814</v>
       </c>
       <c r="J20">
-        <v>1.009633797066584</v>
+        <v>1.01613732787677</v>
       </c>
       <c r="K20">
-        <v>1.016752699544311</v>
+        <v>1.025616202001469</v>
       </c>
       <c r="L20">
-        <v>1.004941498631423</v>
+        <v>1.011237108359664</v>
       </c>
       <c r="M20">
-        <v>0.9638834406194032</v>
+        <v>0.9710115499398717</v>
       </c>
       <c r="N20">
-        <v>1.011067592865034</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008954762854025</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.029262393590767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.972167029905124</v>
+        <v>0.9823815302464337</v>
       </c>
       <c r="D21">
-        <v>0.995697332411587</v>
+        <v>1.007996532570223</v>
       </c>
       <c r="E21">
-        <v>0.9831694510429287</v>
+        <v>0.9925895531794828</v>
       </c>
       <c r="F21">
-        <v>0.9357558764048676</v>
+        <v>0.9468153424483198</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030078200644595</v>
+        <v>1.0368006454778</v>
       </c>
       <c r="J21">
-        <v>1.002876355945574</v>
+        <v>1.012634798637962</v>
       </c>
       <c r="K21">
-        <v>1.010760681236359</v>
+        <v>1.022827975518996</v>
       </c>
       <c r="L21">
-        <v>0.9984768562827219</v>
+        <v>1.007712692062372</v>
       </c>
       <c r="M21">
-        <v>0.9520659254861561</v>
+        <v>0.9628795842218332</v>
       </c>
       <c r="N21">
-        <v>1.004300555402542</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007750575013622</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.027294249724693</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.966138386687783</v>
+        <v>0.9786483914021252</v>
       </c>
       <c r="D22">
-        <v>0.9910766683948095</v>
+        <v>1.005545893163031</v>
       </c>
       <c r="E22">
-        <v>0.9782222597032035</v>
+        <v>0.9896440947729136</v>
       </c>
       <c r="F22">
-        <v>0.9271091127010735</v>
+        <v>0.9407359257550483</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027799192818171</v>
+        <v>1.035728820559</v>
       </c>
       <c r="J22">
-        <v>0.9984402564892524</v>
+        <v>1.010355199389601</v>
       </c>
       <c r="K22">
-        <v>1.006826995338337</v>
+        <v>1.02100827964259</v>
       </c>
       <c r="L22">
-        <v>0.9942378449652204</v>
+        <v>1.005423534048952</v>
       </c>
       <c r="M22">
-        <v>0.9442774051566067</v>
+        <v>0.9575805131229924</v>
       </c>
       <c r="N22">
-        <v>0.9998581561761656</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006964891818372</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.025993981320601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9693590221233905</v>
+        <v>0.980623193986786</v>
       </c>
       <c r="D23">
-        <v>0.9935443996650042</v>
+        <v>1.006834806519571</v>
       </c>
       <c r="E23">
-        <v>0.9808641109153836</v>
+        <v>0.9911995237904906</v>
       </c>
       <c r="F23">
-        <v>0.9317332506801563</v>
+        <v>0.9439631536139413</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029017795203731</v>
+        <v>1.036291626745348</v>
       </c>
       <c r="J23">
-        <v>1.000810781293039</v>
+        <v>1.011556751980789</v>
       </c>
       <c r="K23">
-        <v>1.008929032328871</v>
+        <v>1.021962366549996</v>
       </c>
       <c r="L23">
-        <v>0.9965025761079773</v>
+        <v>1.006630452845359</v>
       </c>
       <c r="M23">
-        <v>0.9484426453384569</v>
+        <v>0.9603920694205087</v>
       </c>
       <c r="N23">
-        <v>1.002232047397076</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.00737709753857</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.026658835195561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9815154950796854</v>
+        <v>0.9882147137882024</v>
       </c>
       <c r="D24">
-        <v>1.002873700413416</v>
+        <v>1.011814513709961</v>
       </c>
       <c r="E24">
-        <v>0.9908575424430089</v>
+        <v>0.9971989176561841</v>
       </c>
       <c r="F24">
-        <v>0.9490917263445122</v>
+        <v>0.9562812838053306</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033593335946085</v>
+        <v>1.038444502437207</v>
       </c>
       <c r="J24">
-        <v>1.009744138924255</v>
+        <v>1.01617409977733</v>
       </c>
       <c r="K24">
-        <v>1.016850537895433</v>
+        <v>1.025637281965934</v>
       </c>
       <c r="L24">
-        <v>1.005047134926839</v>
+        <v>1.011275402652211</v>
       </c>
       <c r="M24">
-        <v>0.9640759925011276</v>
+        <v>0.9711222583871937</v>
       </c>
       <c r="N24">
-        <v>1.011178091420799</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008964437830994</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.029249648124734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9946841920271619</v>
+        <v>0.9966345959638547</v>
       </c>
       <c r="D25">
-        <v>1.013003810997602</v>
+        <v>1.017362804348964</v>
       </c>
       <c r="E25">
-        <v>1.001721373721782</v>
+        <v>1.003885038586357</v>
       </c>
       <c r="F25">
-        <v>0.967748873395552</v>
+        <v>0.9698181455079901</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038499037623115</v>
+        <v>1.040792576015783</v>
       </c>
       <c r="J25">
-        <v>1.019391788278233</v>
+        <v>1.021275752619847</v>
       </c>
       <c r="K25">
-        <v>1.025403558542993</v>
+        <v>1.029697434342454</v>
       </c>
       <c r="L25">
-        <v>1.014293026223817</v>
+        <v>1.01642334222673</v>
       </c>
       <c r="M25">
-        <v>0.9808693674464211</v>
+        <v>0.9829037917584403</v>
       </c>
       <c r="N25">
-        <v>1.020839441543461</v>
+        <v>1.010718139473578</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.032117539028983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_57/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003032455006315</v>
+        <v>1.003182106216546</v>
       </c>
       <c r="D2">
-        <v>1.021576672386376</v>
+        <v>1.021380463844681</v>
       </c>
       <c r="E2">
-        <v>1.008984314930228</v>
+        <v>1.009134114195019</v>
       </c>
       <c r="F2">
-        <v>0.9800482785743847</v>
+        <v>0.9802058157132665</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04252965572105</v>
+        <v>1.04252110757038</v>
       </c>
       <c r="J2">
-        <v>1.025122842630128</v>
+        <v>1.025268055819044</v>
       </c>
       <c r="K2">
-        <v>1.032743376241842</v>
+        <v>1.032549758870611</v>
       </c>
       <c r="L2">
-        <v>1.020319887051614</v>
+        <v>1.020467646279899</v>
       </c>
       <c r="M2">
-        <v>0.991792753051533</v>
+        <v>0.9919479810516281</v>
       </c>
       <c r="N2">
-        <v>1.012035413642868</v>
+        <v>1.013733736840891</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.034222621338588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034094539953595</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020688239516684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007552292985996</v>
+        <v>1.007450079487809</v>
       </c>
       <c r="D3">
-        <v>1.024573838200236</v>
+        <v>1.024092567805893</v>
       </c>
       <c r="E3">
-        <v>1.012602270716529</v>
+        <v>1.012531139534251</v>
       </c>
       <c r="F3">
-        <v>0.9872295916026108</v>
+        <v>0.9871225301242996</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043745707043682</v>
+        <v>1.043587905492629</v>
       </c>
       <c r="J3">
-        <v>1.027839170999611</v>
+        <v>1.027739687866986</v>
       </c>
       <c r="K3">
-        <v>1.034901658271491</v>
+        <v>1.034426187856232</v>
       </c>
       <c r="L3">
-        <v>1.023076403017888</v>
+        <v>1.023006154050121</v>
       </c>
       <c r="M3">
-        <v>0.998028522711716</v>
+        <v>0.9979228761027987</v>
       </c>
       <c r="N3">
-        <v>1.012967983179185</v>
+        <v>1.014406489815694</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.035746054508194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035418394495795</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021093593574311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01041368001676</v>
+        <v>1.010154384885286</v>
       </c>
       <c r="D4">
-        <v>1.026475542880588</v>
+        <v>1.025815357324314</v>
       </c>
       <c r="E4">
-        <v>1.01489841525276</v>
+        <v>1.014689300846633</v>
       </c>
       <c r="F4">
-        <v>0.9917624659252464</v>
+        <v>0.99149169686786</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044506666737969</v>
+        <v>1.044255180844259</v>
       </c>
       <c r="J4">
-        <v>1.029554702564635</v>
+        <v>1.029301859480094</v>
       </c>
       <c r="K4">
-        <v>1.036264596712382</v>
+        <v>1.035611886134403</v>
       </c>
       <c r="L4">
-        <v>1.024820294355355</v>
+        <v>1.024613613586522</v>
       </c>
       <c r="M4">
-        <v>1.00196133809836</v>
+        <v>1.001693906011115</v>
       </c>
       <c r="N4">
-        <v>1.013556828701852</v>
+        <v>1.01483169386543</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.036710680196772</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036257773837887</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02134713461587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011606285413914</v>
+        <v>1.011281956677615</v>
       </c>
       <c r="D5">
-        <v>1.02727143488873</v>
+        <v>1.026536998935333</v>
       </c>
       <c r="E5">
-        <v>1.01585725896418</v>
+        <v>1.015590964149953</v>
       </c>
       <c r="F5">
-        <v>0.993646619963487</v>
+        <v>0.9933083569614398</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044823364260314</v>
+        <v>1.044532961843015</v>
       </c>
       <c r="J5">
-        <v>1.030270317598753</v>
+        <v>1.029953815221867</v>
       </c>
       <c r="K5">
-        <v>1.0368348560277</v>
+        <v>1.036108513745661</v>
       </c>
       <c r="L5">
-        <v>1.025548096627388</v>
+        <v>1.025284816599161</v>
       </c>
       <c r="M5">
-        <v>1.003595792111748</v>
+        <v>1.003261574223864</v>
       </c>
       <c r="N5">
-        <v>1.01380292490843</v>
+        <v>1.015009522194138</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037121104289821</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036616843463029</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021453214856132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011810830375747</v>
+        <v>1.011475261433953</v>
       </c>
       <c r="D6">
-        <v>1.02741077857572</v>
+        <v>1.026663587225896</v>
       </c>
       <c r="E6">
-        <v>1.01602238559851</v>
+        <v>1.015746188424911</v>
       </c>
       <c r="F6">
-        <v>0.993966855469934</v>
+        <v>0.9936169410954784</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044879619489856</v>
+        <v>1.0445824872325</v>
       </c>
       <c r="J6">
-        <v>1.030394927833984</v>
+        <v>1.030067414340868</v>
       </c>
       <c r="K6">
-        <v>1.036936299868267</v>
+        <v>1.03619730489927</v>
       </c>
       <c r="L6">
-        <v>1.025674444151631</v>
+        <v>1.02540135923492</v>
       </c>
       <c r="M6">
-        <v>1.003874186438897</v>
+        <v>1.003528435165927</v>
       </c>
       <c r="N6">
-        <v>1.013846387929161</v>
+        <v>1.015040967337978</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037201612045833</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036689273403784</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021472770385085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010443530925978</v>
+        <v>1.010192099848507</v>
       </c>
       <c r="D7">
-        <v>1.026502916367914</v>
+        <v>1.025847954789954</v>
       </c>
       <c r="E7">
-        <v>1.014924028799763</v>
+        <v>1.01472209922676</v>
       </c>
       <c r="F7">
-        <v>0.9918022137062019</v>
+        <v>0.9915396615857631</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044520162217357</v>
+        <v>1.044272383957667</v>
       </c>
       <c r="J7">
-        <v>1.029577816599848</v>
+        <v>1.029332639040128</v>
       </c>
       <c r="K7">
-        <v>1.036288762786706</v>
+        <v>1.035641214029078</v>
       </c>
       <c r="L7">
-        <v>1.024842667766352</v>
+        <v>1.024643087260809</v>
       </c>
       <c r="M7">
-        <v>1.001997561108084</v>
+        <v>1.001738243245493</v>
       </c>
       <c r="N7">
-        <v>1.013566449037904</v>
+        <v>1.014867570563523</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.036747961745303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036300703982207</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021355840354139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004590940718059</v>
+        <v>1.004683195084478</v>
       </c>
       <c r="D8">
-        <v>1.022618480378777</v>
+        <v>1.022345863305475</v>
       </c>
       <c r="E8">
-        <v>1.010232739950708</v>
+        <v>1.010333284026469</v>
       </c>
       <c r="F8">
-        <v>0.9825181085234154</v>
+        <v>0.9826150550817609</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.042957731045501</v>
+        <v>1.042912431732835</v>
       </c>
       <c r="J8">
-        <v>1.026066802575108</v>
+        <v>1.026156414547014</v>
       </c>
       <c r="K8">
-        <v>1.033500544045063</v>
+        <v>1.033231419482031</v>
       </c>
       <c r="L8">
-        <v>1.021275863565747</v>
+        <v>1.021375080264088</v>
       </c>
       <c r="M8">
-        <v>0.9939402085480714</v>
+        <v>0.9940357823412592</v>
       </c>
       <c r="N8">
-        <v>1.012361722234092</v>
+        <v>1.014057064082</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.034781040103415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034601830578997</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020840472807708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.993741878073661</v>
+        <v>0.9944594869937731</v>
       </c>
       <c r="D9">
-        <v>1.015442313872633</v>
+        <v>1.01586778104517</v>
       </c>
       <c r="E9">
-        <v>1.001581186035861</v>
+        <v>1.002229103038752</v>
       </c>
       <c r="F9">
-        <v>0.9651930921946086</v>
+        <v>0.9659570016700855</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.039982571127076</v>
+        <v>1.040303420321656</v>
       </c>
       <c r="J9">
-        <v>1.019517578852962</v>
+        <v>1.020209423627473</v>
       </c>
       <c r="K9">
-        <v>1.028289721903932</v>
+        <v>1.028708555547848</v>
       </c>
       <c r="L9">
-        <v>1.014648661585311</v>
+        <v>1.015286117833673</v>
       </c>
       <c r="M9">
-        <v>0.9788773135231617</v>
+        <v>0.9796276558930413</v>
       </c>
       <c r="N9">
-        <v>1.010110862148568</v>
+        <v>1.012446989502</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.031093390705973</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.031400361209798</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019847227954724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.986124702098692</v>
+        <v>0.9873440969980971</v>
       </c>
       <c r="D10">
-        <v>1.010434821365644</v>
+        <v>1.011395075457855</v>
       </c>
       <c r="E10">
-        <v>0.9955427613879424</v>
+        <v>0.9966298977464747</v>
       </c>
       <c r="F10">
-        <v>0.9529085573753053</v>
+        <v>0.9542197913613463</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.037850063936025</v>
+        <v>1.038456384972264</v>
       </c>
       <c r="J10">
-        <v>1.014899854251154</v>
+        <v>1.016069000883982</v>
       </c>
       <c r="K10">
-        <v>1.024618193587838</v>
+        <v>1.025561591764834</v>
       </c>
       <c r="L10">
-        <v>1.009992961713563</v>
+        <v>1.011060268202428</v>
       </c>
       <c r="M10">
-        <v>0.9681835057595702</v>
+        <v>0.9694679257102762</v>
       </c>
       <c r="N10">
-        <v>1.008524576949527</v>
+        <v>1.011439877305951</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.028514294427029</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.02919386182413</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019146660459982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9827419874121104</v>
+        <v>0.9842627787785646</v>
       </c>
       <c r="D11">
-        <v>1.008227820031363</v>
+        <v>1.00948384289392</v>
       </c>
       <c r="E11">
-        <v>0.9928727339307611</v>
+        <v>0.9942264241156463</v>
       </c>
       <c r="F11">
-        <v>0.9474069844420729</v>
+        <v>0.9490501642747757</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.036899586433172</v>
+        <v>1.037671540300652</v>
       </c>
       <c r="J11">
-        <v>1.012850771170351</v>
+        <v>1.01430522266128</v>
       </c>
       <c r="K11">
-        <v>1.022996222068407</v>
+        <v>1.024229096960033</v>
       </c>
       <c r="L11">
-        <v>1.007930323453907</v>
+        <v>1.009258049206624</v>
       </c>
       <c r="M11">
-        <v>0.9633938943981584</v>
+        <v>0.9650014286043463</v>
       </c>
       <c r="N11">
-        <v>1.007823439391694</v>
+        <v>1.011196412773304</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.027400631698111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.028288087294442</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018854980490713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.981458716070847</v>
+        <v>0.9831020175440548</v>
       </c>
       <c r="D12">
-        <v>1.007386589469127</v>
+        <v>1.008760916661147</v>
       </c>
       <c r="E12">
-        <v>0.9918598366480049</v>
+        <v>0.9933221975636741</v>
       </c>
       <c r="F12">
-        <v>0.945319354404587</v>
+        <v>0.9470981967020358</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.036533624731888</v>
+        <v>1.037372612139609</v>
       </c>
       <c r="J12">
-        <v>1.012069046438826</v>
+        <v>1.013639156473083</v>
       </c>
       <c r="K12">
-        <v>1.022373629261526</v>
+        <v>1.023722174323412</v>
       </c>
       <c r="L12">
-        <v>1.007144668851381</v>
+        <v>1.008578461826232</v>
       </c>
       <c r="M12">
-        <v>0.9615748851830037</v>
+        <v>0.9633142922265273</v>
       </c>
       <c r="N12">
-        <v>1.007554552638291</v>
+        <v>1.011119759849148</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.026960429742507</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.027929678000494</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018743028914291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9817327031802164</v>
+        <v>0.9833495361656163</v>
       </c>
       <c r="D13">
-        <v>1.00756513301399</v>
+        <v>1.008913955120719</v>
       </c>
       <c r="E13">
-        <v>0.9920757509494375</v>
+        <v>0.9935146342774465</v>
       </c>
       <c r="F13">
-        <v>0.9457664876086406</v>
+        <v>0.9475159776910397</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.036611078833204</v>
+        <v>1.037435609076526</v>
       </c>
       <c r="J13">
-        <v>1.012235274085437</v>
+        <v>1.013780413706612</v>
       </c>
       <c r="K13">
-        <v>1.022505266101204</v>
+        <v>1.023828880220452</v>
       </c>
       <c r="L13">
-        <v>1.007311808046305</v>
+        <v>1.00872269187957</v>
       </c>
       <c r="M13">
-        <v>0.961964262175769</v>
+        <v>0.963675147215228</v>
       </c>
       <c r="N13">
-        <v>1.007611444040391</v>
+        <v>1.011134847735458</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.027050983512957</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028002361728319</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.01876634865208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9826353845926956</v>
+        <v>0.9841662082530918</v>
       </c>
       <c r="D14">
-        <v>1.008157481827001</v>
+        <v>1.009423218389456</v>
       </c>
       <c r="E14">
-        <v>0.9927884425282356</v>
+        <v>0.9941510315972816</v>
       </c>
       <c r="F14">
-        <v>0.9472341701904836</v>
+        <v>0.9488884408809666</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.036868896651719</v>
+        <v>1.037646351064703</v>
       </c>
       <c r="J14">
-        <v>1.012785544776663</v>
+        <v>1.014249475312695</v>
       </c>
       <c r="K14">
-        <v>1.022943951663574</v>
+        <v>1.024186326739921</v>
       </c>
       <c r="L14">
-        <v>1.007864801163434</v>
+        <v>1.009201215230483</v>
       </c>
       <c r="M14">
-        <v>0.9632432221230866</v>
+        <v>0.9648615418837437</v>
       </c>
       <c r="N14">
-        <v>1.007800882472749</v>
+        <v>1.01118947228219</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027362594898969</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.028256665010971</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018845429583356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9831933693679384</v>
+        <v>0.984671997546924</v>
       </c>
       <c r="D15">
-        <v>1.008525803854131</v>
+        <v>1.00974093707471</v>
       </c>
       <c r="E15">
-        <v>0.9932297302449762</v>
+        <v>0.9945460304543197</v>
       </c>
       <c r="F15">
-        <v>0.9481383481535067</v>
+        <v>0.9497349483196021</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.037029548283787</v>
+        <v>1.037778371798184</v>
       </c>
       <c r="J15">
-        <v>1.013126997730436</v>
+        <v>1.014541597501377</v>
       </c>
       <c r="K15">
-        <v>1.02321766298977</v>
+        <v>1.024410541985548</v>
       </c>
       <c r="L15">
-        <v>1.008207818674931</v>
+        <v>1.009499034645787</v>
       </c>
       <c r="M15">
-        <v>0.9640315628713093</v>
+        <v>0.965593791713272</v>
       </c>
       <c r="N15">
-        <v>1.007918994271009</v>
+        <v>1.011226569123919</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.02756205483876</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.028421692913659</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018895531088182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9863815401296231</v>
+        <v>0.9875789085935258</v>
       </c>
       <c r="D16">
-        <v>1.010619990780436</v>
+        <v>1.011558620527561</v>
       </c>
       <c r="E16">
-        <v>0.9957504168812984</v>
+        <v>0.9968179311430403</v>
       </c>
       <c r="F16">
-        <v>0.9533063979025471</v>
+        <v>0.9545935399891814</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.037934924794019</v>
+        <v>1.038528897908425</v>
       </c>
       <c r="J16">
-        <v>1.015067541219464</v>
+        <v>1.016215762439285</v>
       </c>
       <c r="K16">
-        <v>1.024763986914431</v>
+        <v>1.025686195962256</v>
       </c>
       <c r="L16">
-        <v>1.010159920362657</v>
+        <v>1.01120803002582</v>
       </c>
       <c r="M16">
-        <v>0.9685338642564314</v>
+        <v>0.9697947914500575</v>
       </c>
       <c r="N16">
-        <v>1.0085867467276</v>
+        <v>1.01147033347646</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028658575423108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.029327125078411</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019178082823885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9883527806879253</v>
+        <v>0.9893923415745407</v>
       </c>
       <c r="D17">
-        <v>1.011916809014742</v>
+        <v>1.012696454949503</v>
       </c>
       <c r="E17">
-        <v>0.9973113514053447</v>
+        <v>0.9982397255462033</v>
       </c>
       <c r="F17">
-        <v>0.9564918307290259</v>
+        <v>0.9576063420925435</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.038491933310922</v>
+        <v>1.038998182005611</v>
       </c>
       <c r="J17">
-        <v>1.016266021317472</v>
+        <v>1.017264349344048</v>
       </c>
       <c r="K17">
-        <v>1.025719070571473</v>
+        <v>1.026485472226844</v>
       </c>
       <c r="L17">
-        <v>1.011366687172407</v>
+        <v>1.012278689305236</v>
       </c>
       <c r="M17">
-        <v>0.9713082887763971</v>
+        <v>0.9724008877993101</v>
       </c>
       <c r="N17">
-        <v>1.008999160399381</v>
+        <v>1.011659586546919</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.029336473961491</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.029895100371914</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019355538784267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9894820321084851</v>
+        <v>0.9904376035114837</v>
       </c>
       <c r="D18">
-        <v>1.012655072697689</v>
+        <v>1.013348320751564</v>
       </c>
       <c r="E18">
-        <v>0.9982049797135544</v>
+        <v>0.9990595224439091</v>
       </c>
       <c r="F18">
-        <v>0.9583190640028525</v>
+        <v>0.9593419735690868</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.038806067024062</v>
+        <v>1.039265281780119</v>
       </c>
       <c r="J18">
-        <v>1.016948370325125</v>
+        <v>1.017866798558171</v>
       </c>
       <c r="K18">
-        <v>1.026258880899828</v>
+        <v>1.026940555102644</v>
       </c>
       <c r="L18">
-        <v>1.012054769647805</v>
+        <v>1.012894509526219</v>
       </c>
       <c r="M18">
-        <v>0.9728982609585383</v>
+        <v>0.9739014718237067</v>
       </c>
       <c r="N18">
-        <v>1.009232534885333</v>
+        <v>1.011780838793628</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.029706398632504</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.03020398349898</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019455506557849</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.989873579320063</v>
+        <v>0.9908009237328255</v>
       </c>
       <c r="D19">
-        <v>1.012915309829591</v>
+        <v>1.013579307789142</v>
       </c>
       <c r="E19">
-        <v>0.9985160688289016</v>
+        <v>0.9993457888214584</v>
       </c>
       <c r="F19">
-        <v>0.9589476201944409</v>
+        <v>0.9599398039683827</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.038917893899025</v>
+        <v>1.039361198537567</v>
       </c>
       <c r="J19">
-        <v>1.017187785625334</v>
+        <v>1.018079334013313</v>
       </c>
       <c r="K19">
-        <v>1.026451402657435</v>
+        <v>1.027104381276753</v>
       </c>
       <c r="L19">
-        <v>1.012295784854816</v>
+        <v>1.013111220244809</v>
       </c>
       <c r="M19">
-        <v>0.9734461191598237</v>
+        <v>0.9744193315937847</v>
       </c>
       <c r="N19">
-        <v>1.009315540438574</v>
+        <v>1.011827460923767</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.029848970101817</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.030326884267867</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019492488820478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9881415014591711</v>
+        <v>0.9891973531992438</v>
       </c>
       <c r="D20">
-        <v>1.011777329053505</v>
+        <v>1.012573549368583</v>
       </c>
       <c r="E20">
-        <v>0.9971438503943264</v>
+        <v>0.9980865744363375</v>
       </c>
       <c r="F20">
-        <v>0.9561512130603657</v>
+        <v>0.9572835107935505</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.038432030356814</v>
+        <v>1.038947377690988</v>
       </c>
       <c r="J20">
-        <v>1.01613732787677</v>
+        <v>1.017151145184158</v>
       </c>
       <c r="K20">
-        <v>1.025616202001469</v>
+        <v>1.026398853373789</v>
       </c>
       <c r="L20">
-        <v>1.011237108359664</v>
+        <v>1.012163152775417</v>
       </c>
       <c r="M20">
-        <v>0.9710115499398717</v>
+        <v>0.9721215007513866</v>
       </c>
       <c r="N20">
-        <v>1.008954762854025</v>
+        <v>1.01163753845893</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.029262393590767</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.029832381112697</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019336195951617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9823815302464337</v>
+        <v>0.9839618075223804</v>
       </c>
       <c r="D21">
-        <v>1.007996532570223</v>
+        <v>1.00930465541214</v>
       </c>
       <c r="E21">
-        <v>0.9925895531794828</v>
+        <v>0.9939968727635324</v>
       </c>
       <c r="F21">
-        <v>0.9468153424483198</v>
+        <v>0.9485236950683584</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.0368006454778</v>
+        <v>1.037604154674369</v>
       </c>
       <c r="J21">
-        <v>1.012634798637962</v>
+        <v>1.014145727565622</v>
       </c>
       <c r="K21">
-        <v>1.022827975518996</v>
+        <v>1.024111866722115</v>
       </c>
       <c r="L21">
-        <v>1.007712692062372</v>
+        <v>1.009092875794963</v>
       </c>
       <c r="M21">
-        <v>0.9628795842218332</v>
+        <v>0.9645506457674717</v>
       </c>
       <c r="N21">
-        <v>1.007750575013622</v>
+        <v>1.011246282073831</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.027294249724693</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.028218979107111</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018832386219051</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9786483914021252</v>
+        <v>0.9805721947730175</v>
       </c>
       <c r="D22">
-        <v>1.005545893163031</v>
+        <v>1.007188699027581</v>
       </c>
       <c r="E22">
-        <v>0.9896440947729136</v>
+        <v>0.9913557804608542</v>
       </c>
       <c r="F22">
-        <v>0.9407359257550483</v>
+        <v>0.9428270714063514</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.035728820559</v>
+        <v>1.036720987537392</v>
       </c>
       <c r="J22">
-        <v>1.010355199389601</v>
+        <v>1.012189427354035</v>
       </c>
       <c r="K22">
-        <v>1.02100827964259</v>
+        <v>1.022619078978864</v>
       </c>
       <c r="L22">
-        <v>1.005423534048952</v>
+        <v>1.007100448273835</v>
       </c>
       <c r="M22">
-        <v>0.9575805131229924</v>
+        <v>0.9596230908328497</v>
       </c>
       <c r="N22">
-        <v>1.006964891818372</v>
+        <v>1.010977306974425</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.025993981320601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.027148571589557</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018499584729643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.980623193986786</v>
+        <v>0.9823483255703019</v>
       </c>
       <c r="D23">
-        <v>1.006834806519571</v>
+        <v>1.008287703431523</v>
       </c>
       <c r="E23">
-        <v>0.9911995237904906</v>
+        <v>0.9927346045485257</v>
       </c>
       <c r="F23">
-        <v>0.9439631536139413</v>
+        <v>0.9458328367948244</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.036291626745348</v>
+        <v>1.037175396398745</v>
       </c>
       <c r="J23">
-        <v>1.011556751980789</v>
+        <v>1.013204022533958</v>
       </c>
       <c r="K23">
-        <v>1.021962366549996</v>
+        <v>1.023387697615034</v>
       </c>
       <c r="L23">
-        <v>1.006630452845359</v>
+        <v>1.008135193049249</v>
       </c>
       <c r="M23">
-        <v>0.9603920694205087</v>
+        <v>0.9622197251278192</v>
       </c>
       <c r="N23">
-        <v>1.00737709753857</v>
+        <v>1.011071715696115</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.026658835195561</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.027681346821069</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018668181248986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9882147137882024</v>
+        <v>0.9892653741022254</v>
       </c>
       <c r="D24">
-        <v>1.011814513709961</v>
+        <v>1.01260519933827</v>
       </c>
       <c r="E24">
-        <v>0.9971989176561841</v>
+        <v>0.9981371811223767</v>
       </c>
       <c r="F24">
-        <v>0.9562812838053306</v>
+        <v>0.9574078750039073</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.038444502437207</v>
+        <v>1.038957038985071</v>
       </c>
       <c r="J24">
-        <v>1.01617409977733</v>
+        <v>1.01718299971761</v>
       </c>
       <c r="K24">
-        <v>1.025637281965934</v>
+        <v>1.026414511466454</v>
       </c>
       <c r="L24">
-        <v>1.011275402652211</v>
+        <v>1.012197089111835</v>
       </c>
       <c r="M24">
-        <v>0.9711222583871937</v>
+        <v>0.9722266520924031</v>
       </c>
       <c r="N24">
-        <v>1.008964437830994</v>
+        <v>1.011639980589939</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.029249648124734</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.02981314023896</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019337137821967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9966345959638547</v>
+        <v>0.9971698472965914</v>
       </c>
       <c r="D25">
-        <v>1.017362804348964</v>
+        <v>1.01759102952285</v>
       </c>
       <c r="E25">
-        <v>1.003885038586357</v>
+        <v>1.004373011882108</v>
       </c>
       <c r="F25">
-        <v>0.9698181455079901</v>
+        <v>0.9703858962482483</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.040792576015783</v>
+        <v>1.041008368807469</v>
       </c>
       <c r="J25">
-        <v>1.021275752619847</v>
+        <v>1.021792834204845</v>
       </c>
       <c r="K25">
-        <v>1.029697434342454</v>
+        <v>1.029922269674397</v>
       </c>
       <c r="L25">
-        <v>1.01642334222673</v>
+        <v>1.016903819662535</v>
       </c>
       <c r="M25">
-        <v>0.9829037917584403</v>
+        <v>0.9834620147252395</v>
       </c>
       <c r="N25">
-        <v>1.010718139473578</v>
+        <v>1.012846880464686</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.032117539028983</v>
+        <v>1.032290128899898</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02011789584293</v>
       </c>
     </row>
   </sheetData>
